--- a/Template-Project-Planning.xlsx
+++ b/Template-Project-Planning.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
   <si>
     <t>Week</t>
   </si>
@@ -23,6 +23,24 @@
     <t>Release #</t>
   </si>
   <si>
+    <t>Deploy first thing</t>
+  </si>
+  <si>
+    <t>Prepare the files</t>
+  </si>
+  <si>
+    <t>Run the test files</t>
+  </si>
+  <si>
+    <t>Put the ML flask app</t>
+  </si>
+  <si>
+    <t>Deploy the ML flask in azure</t>
+  </si>
+  <si>
+    <t>Deploy the ML flask locally</t>
+  </si>
+  <si>
     <t>Top 3 Quarter Goals</t>
   </si>
   <si>
@@ -41,9 +59,6 @@
     <t>Create the pipeline</t>
   </si>
   <si>
-    <t>Deploy first thing</t>
-  </si>
-  <si>
     <t>Demo every monday</t>
   </si>
   <si>
@@ -63,6 +78,60 @@
   </si>
   <si>
     <t>Tickets represents no more than 3 days work</t>
+  </si>
+  <si>
+    <t>Add Makefile</t>
+  </si>
+  <si>
+    <t>Add requirements.txt</t>
+  </si>
+  <si>
+    <t>Add hello.py</t>
+  </si>
+  <si>
+    <t>Add test_hello.py</t>
+  </si>
+  <si>
+    <t>Fix the sintax of Makefile and test_hello.py</t>
+  </si>
+  <si>
+    <t>Enable GitHub Action</t>
+  </si>
+  <si>
+    <t>Modifying README.md to test GitHub Actions UI</t>
+  </si>
+  <si>
+    <t>Adding Status badge</t>
+  </si>
+  <si>
+    <t>Replacing scaffolding code with Flask Machine Learning code</t>
+  </si>
+  <si>
+    <t>Update github action pythonapp.yml</t>
+  </si>
+  <si>
+    <t>Creation of the python webapp</t>
+  </si>
+  <si>
+    <t>Set up CI with Azure Pipelines</t>
+  </si>
+  <si>
+    <t>Update values of port in app.py</t>
+  </si>
+  <si>
+    <t>Create the azure pipeline</t>
+  </si>
+  <si>
+    <t>Deploy the app locally</t>
+  </si>
+  <si>
+    <t>Deploy the app using docker</t>
+  </si>
+  <si>
+    <t>Complete the README.md</t>
+  </si>
+  <si>
+    <t>Update the project plan</t>
   </si>
 </sst>
 </file>
@@ -72,9 +141,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -108,8 +177,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,13 +189,6 @@
       <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,6 +208,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -155,14 +240,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,25 +291,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,57 +327,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -274,181 +343,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,30 +557,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,8 +605,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,151 +625,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,15 +1074,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4333333333333" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="55.75" customWidth="1"/>
     <col min="2" max="2" width="32.1416666666667" customWidth="1"/>
     <col min="3" max="3" width="47.4333333333333" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
@@ -1032,128 +1101,148 @@
     </row>
     <row r="2" ht="12.75" spans="1:5">
       <c r="A2" s="4">
-        <v>44107</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+        <v>44011</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" ht="12.75" spans="1:5">
       <c r="A3" s="4">
-        <v>44115</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7">
-        <v>7.5</v>
-      </c>
+        <v>44012</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="12.75" spans="1:5">
       <c r="A4" s="4">
-        <v>44123</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+        <v>44012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="12.75" spans="1:5">
       <c r="A5" s="4">
-        <v>44131</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7">
-        <v>7.6</v>
+        <v>44012</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="12.75" spans="1:5">
       <c r="A6" s="4">
-        <v>44139</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+        <v>44013</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" ht="12.75" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
-        <v>44147</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>44015</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="7">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" ht="12.75" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
-        <v>44155</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+        <v>44016</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" ht="12.75" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="4">
-        <v>44163</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7">
-        <v>7.8</v>
+        <v>44018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" ht="12.75" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="4">
-        <v>44171</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+        <v>44021</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" ht="12.75" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" s="4">
-        <v>44179</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7">
-        <v>7.9</v>
+        <v>44022</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" ht="12.75" spans="1:5">
-      <c r="A12" s="4">
-        <v>44187</v>
-      </c>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" ht="12.75" spans="1:5">
-      <c r="A13" s="4">
-        <v>44195</v>
-      </c>
+      <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="7">
-        <v>8</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" ht="12.75" spans="1:5">
-      <c r="A14" s="4">
-        <v>44203</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
@@ -1161,24 +1250,24 @@
     </row>
     <row r="15" ht="12.75" spans="1:5">
       <c r="A15" s="10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="12.75" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -1187,15 +1276,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
@@ -1204,15 +1293,15 @@
         <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>3</v>
@@ -1221,15 +1310,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="12.75" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>4</v>
@@ -1238,10 +1327,262 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1253,15 +1594,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4333333333333" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="22.1416666666667" customWidth="1"/>
+    <col min="1" max="1" width="55.75" customWidth="1"/>
     <col min="2" max="2" width="32.1416666666667" customWidth="1"/>
     <col min="3" max="3" width="47.4333333333333" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
@@ -1280,153 +1621,173 @@
     </row>
     <row r="2" ht="12.75" spans="1:5">
       <c r="A2" s="4">
-        <v>44107</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+        <v>44011</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" ht="12.75" spans="1:5">
       <c r="A3" s="4">
-        <v>44115</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="7">
-        <v>7.5</v>
-      </c>
+        <v>44012</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" ht="12.75" spans="1:5">
       <c r="A4" s="4">
-        <v>44123</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+        <v>44012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" ht="12.75" spans="1:5">
       <c r="A5" s="4">
-        <v>44131</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7">
-        <v>7.6</v>
+        <v>44012</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" ht="12.75" spans="1:5">
       <c r="A6" s="4">
-        <v>44139</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+        <v>44013</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" ht="12.75" spans="1:5">
       <c r="A7" s="4">
-        <v>44147</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>44015</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="7">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" ht="12.75" spans="1:5">
       <c r="A8" s="4">
-        <v>44155</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+        <v>44021</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" ht="12.75" spans="1:5">
       <c r="A9" s="4">
-        <v>44163</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7">
-        <v>7.8</v>
+        <v>44023</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" ht="12.75" spans="1:5">
       <c r="A10" s="4">
-        <v>44171</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+        <v>44025</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" ht="12.75" spans="1:5">
       <c r="A11" s="4">
-        <v>44179</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="7">
-        <v>7.9</v>
+        <v>44028</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" ht="12.75" spans="1:5">
-      <c r="A12" s="4">
-        <v>44187</v>
-      </c>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" ht="12.75" spans="1:5">
-      <c r="A13" s="4">
-        <v>44195</v>
-      </c>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="7">
-        <v>8</v>
-      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" ht="12.75" spans="1:5">
-      <c r="A14" s="4">
-        <v>44203</v>
-      </c>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" ht="12.75" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
@@ -1435,15 +1796,15 @@
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" ht="12.75" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
@@ -1452,15 +1813,15 @@
         <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="12.75" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>3</v>
@@ -1469,15 +1830,15 @@
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="12.75" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>4</v>
@@ -1486,10 +1847,262 @@
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
